--- a/data/trans_bre/P16-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,58</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,47</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>48,94%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,36%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>10,92; 28,59</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1,94; 18,6</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1,56; 16,18</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>25,12; 81,87</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,97; 34,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,16; 27,19</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,31</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,92</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,78</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,72</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,88%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,07; 26,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,82; 27,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,86; 24,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,55; 20,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,0; 75,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,98; 57,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,1; 55,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,71; 45,03</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,54</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,01%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,27%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,95%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,37; 33,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,72; 29,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,82; 22,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,85; 17,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,27; 105,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,15; 60,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,47; 48,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,22; 33,48</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,83</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,37</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,51</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,14%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,33%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,42; 24,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,01; 28,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,81; 20,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,25; 16,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,7; 68,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,8; 57,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,2; 35,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,57; 31,91</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,88</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,62</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,67</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,26%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,24%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,04%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,39%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,78; 25,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,9; 36,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,05; 30,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,37; 25,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,78; 61,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,48; 76,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,96; 80,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,02; 58,2</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,21</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,11</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,32</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,9%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,54%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,54%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,16; 32,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,71; 27,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,24; 25,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,09; 12,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,69; 90,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,21; 50,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,48; 62,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,14; 23,65</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,93</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,38</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,46</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,18</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,71%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,42%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,22%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,9%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,2; 22,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,34; 20,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,78; 16,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,55; 22,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,74; 62,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,68; 41,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,19; 39,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,57; 39,19</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,17</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,23</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,65</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,99</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,44%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,34%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,59%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,21; 17,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,24; 22,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,6; 20,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,93; 22,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,11; 40,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,47; 59,84</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,67; 44,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,43; 77,97</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,04</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,81</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,06</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,51</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,5%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,29%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,96%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,47; 20,37</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,44; 22,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,6; 17,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,54; 17,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,26; 52,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,54; 44,84</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,46; 35,6</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,67; 34,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>20,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,47</t>
+          <t>10,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,31%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>15,51%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,72; 28,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 16,18</t>
+          <t>1,2; 17,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,78; 55,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,16; 27,19</t>
+          <t>1,69; 30,66</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,72</t>
+          <t>15,15</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,88%</t>
+          <t>30,61%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,55; 20,72</t>
+          <t>8,65; 22,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,71; 45,03</t>
+          <t>16,2; 50,64</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,63</t>
+          <t>10,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>18,79%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,85; 17,86</t>
+          <t>4,09; 18,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,22; 33,48</t>
+          <t>6,67; 34,75</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,37</t>
+          <t>25,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>44,59%</t>
+          <t>52,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,33%</t>
+          <t>14,75%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,01; 28,42</t>
+          <t>18,36; 32,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 16,51</t>
+          <t>-6,38; 22,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,8; 57,84</t>
+          <t>34,33; 72,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 31,91</t>
+          <t>-10,91; 43,4</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15,67</t>
+          <t>16,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>32,39%</t>
+          <t>33,32%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,37; 25,0</t>
+          <t>8,18; 25,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,02; 58,2</t>
+          <t>15,42; 60,38</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,63</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>10,7%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 12,72</t>
+          <t>-1,49; 13,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 23,65</t>
+          <t>-2,32; 25,19</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,18</t>
+          <t>16,27</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>27,07%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,55; 22,99</t>
+          <t>7,04; 30,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,57; 39,19</t>
+          <t>11,44; 56,89</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>14,99</t>
+          <t>23,16</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>41,59%</t>
+          <t>81,4%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,93; 22,72</t>
+          <t>11,64; 40,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>25,43; 77,97</t>
+          <t>29,35; 327,94</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>12,51</t>
+          <t>16,93</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>34,34%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,54; 17,09</t>
+          <t>11,06; 29,85</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>17,67; 34,14</t>
+          <t>20,85; 77,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,92; 28,59</t>
+          <t>10,61; 27,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,72; 28,47</t>
+          <t>12,36; 28,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,94; 18,6</t>
+          <t>2,44; 18,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 17,81</t>
+          <t>1,72; 18,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,12; 81,87</t>
+          <t>23,48; 76,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,78; 55,16</t>
+          <t>19,43; 53,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 34,43</t>
+          <t>3,84; 34,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 30,66</t>
+          <t>2,5; 31,23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,07; 26,06</t>
+          <t>14,28; 26,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,82; 27,11</t>
+          <t>15,1; 27,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,86; 24,96</t>
+          <t>12,51; 24,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,65; 22,31</t>
+          <t>8,26; 22,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,0; 75,01</t>
+          <t>34,11; 76,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,98; 57,4</t>
+          <t>28,0; 57,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,1; 55,4</t>
+          <t>24,36; 54,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,2; 50,64</t>
+          <t>15,24; 49,52</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,37; 33,68</t>
+          <t>18,16; 32,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,72; 29,91</t>
+          <t>14,32; 29,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,82; 22,42</t>
+          <t>7,77; 22,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,09; 18,44</t>
+          <t>2,9; 18,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>42,27; 105,71</t>
+          <t>45,18; 101,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,15; 60,96</t>
+          <t>24,47; 59,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,47; 48,67</t>
+          <t>14,64; 49,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,67; 34,75</t>
+          <t>4,99; 33,54</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,42; 24,59</t>
+          <t>10,66; 25,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,36; 32,37</t>
+          <t>18,21; 32,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,81; 20,32</t>
+          <t>6,73; 20,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 22,79</t>
+          <t>-6,78; 22,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,7; 68,09</t>
+          <t>25,56; 70,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,33; 72,99</t>
+          <t>34,32; 72,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,2; 35,43</t>
+          <t>10,66; 35,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 43,4</t>
+          <t>-11,56; 42,69</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,78; 25,61</t>
+          <t>5,74; 25,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,9; 36,29</t>
+          <t>18,33; 36,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,05; 30,72</t>
+          <t>12,67; 30,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,18; 25,06</t>
+          <t>8,14; 23,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,78; 61,72</t>
+          <t>11,45; 61,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,48; 76,08</t>
+          <t>31,02; 78,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,96; 80,6</t>
+          <t>26,45; 80,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,42; 60,38</t>
+          <t>15,77; 54,93</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,16; 32,3</t>
+          <t>16,47; 32,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,71; 27,4</t>
+          <t>11,65; 26,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,24; 25,76</t>
+          <t>8,52; 25,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 13,34</t>
+          <t>-0,67; 14,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>33,69; 90,86</t>
+          <t>36,77; 92,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,21; 50,78</t>
+          <t>18,54; 50,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,48; 62,18</t>
+          <t>17,14; 62,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 25,19</t>
+          <t>-1,05; 26,81</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,2; 22,23</t>
+          <t>10,87; 22,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,34; 20,63</t>
+          <t>9,68; 21,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,78; 16,87</t>
+          <t>5,79; 16,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,04; 30,92</t>
+          <t>6,28; 31,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,74; 62,0</t>
+          <t>25,91; 63,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,68; 41,86</t>
+          <t>17,59; 44,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,19; 39,86</t>
+          <t>11,55; 40,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,44; 56,89</t>
+          <t>10,33; 54,37</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,21; 17,3</t>
+          <t>7,21; 17,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>12,24; 22,67</t>
+          <t>12,02; 22,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,6; 20,5</t>
+          <t>10,75; 20,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11,64; 40,58</t>
+          <t>11,52; 40,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>15,11; 40,95</t>
+          <t>15,2; 42,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,47; 59,84</t>
+          <t>26,68; 57,1</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>20,67; 44,65</t>
+          <t>20,92; 44,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>29,35; 327,94</t>
+          <t>28,9; 316,65</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15,47; 20,37</t>
+          <t>15,7; 20,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17,44; 22,04</t>
+          <t>17,61; 22,37</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>12,6; 17,39</t>
+          <t>12,69; 17,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11,06; 29,85</t>
+          <t>11,2; 29,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>37,26; 52,15</t>
+          <t>37,43; 52,27</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>33,54; 44,84</t>
+          <t>33,9; 45,53</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>24,46; 35,6</t>
+          <t>24,97; 36,07</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>20,85; 77,44</t>
+          <t>21,34; 75,12</t>
         </is>
       </c>
     </row>
